--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d7be89ac2d74e3b/Documents/GitHub/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{88A4C000-A471-49DD-BCDA-369CDE128E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6CC2CA-4A70-4DD5-B97D-39510537FF47}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{88A4C000-A471-49DD-BCDA-369CDE128E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47955B8-3B85-4D4B-904B-28B18BAF9758}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -104,6 +104,21 @@
   </si>
   <si>
     <t>0-2</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Gem</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Guh</t>
+  </si>
+  <si>
+    <t>Shiny</t>
   </si>
 </sst>
 </file>
@@ -458,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,6 +592,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -476,7 +476,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d7be89ac2d74e3b/Documents/GitHub/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{88A4C000-A471-49DD-BCDA-369CDE128E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47955B8-3B85-4D4B-904B-28B18BAF9758}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{88A4C000-A471-49DD-BCDA-369CDE128E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB5E034-11D2-42B8-BFBD-43271DFC23DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -118,7 +118,28 @@
     <t>Guh</t>
   </si>
   <si>
-    <t>Shiny</t>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Panther Tooth</t>
+  </si>
+  <si>
+    <t>Bark</t>
+  </si>
+  <si>
+    <t>Golden Apple</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-5</t>
   </si>
 </sst>
 </file>
@@ -154,9 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
@@ -497,7 +521,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -514,7 +538,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1">
@@ -531,7 +555,7 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1">
@@ -548,7 +572,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1">
@@ -565,7 +589,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1">
@@ -582,7 +606,7 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1">
@@ -599,7 +623,7 @@
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1">
@@ -614,9 +638,9 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1">
@@ -624,6 +648,91 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d7be89ac2d74e3b/Documents/GitHub/RPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{88A4C000-A471-49DD-BCDA-369CDE128E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB5E034-11D2-42B8-BFBD-43271DFC23DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0179A4-A60D-4053-801F-D5A9D902216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Guh</t>
-  </si>
-  <si>
     <t>Meat</t>
   </si>
   <si>
@@ -140,6 +137,24 @@
   </si>
   <si>
     <t>3-5</t>
+  </si>
+  <si>
+    <t>Dropped by Treant. Material used to buy Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Treant. Material used to buy Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Panther. Material used to by Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Panther. Material used to buy Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Golem. Material used to buy Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Golem. Material used to buy Premium Loot Boxes</t>
   </si>
 </sst>
 </file>
@@ -499,22 +514,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -565,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -582,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -599,7 +614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -616,12 +631,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -633,12 +648,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -650,29 +665,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -684,12 +699,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -701,12 +716,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -718,21 +733,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0179A4-A60D-4053-801F-D5A9D902216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C3AEC9-B3FB-4E9D-88B2-D094B8964E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Description</t>
   </si>
@@ -139,22 +139,40 @@
     <t>3-5</t>
   </si>
   <si>
-    <t>Dropped by Treant. Material used to buy Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>Dropped by Treant. Material used to buy Loot Boxes</t>
-  </si>
-  <si>
-    <t>Dropped by Panther. Material used to by Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>Dropped by Panther. Material used to buy Loot Boxes</t>
-  </si>
-  <si>
-    <t>Dropped by Golem. Material used to buy Loot Boxes</t>
-  </si>
-  <si>
-    <t>Dropped by Golem. Material used to buy Premium Loot Boxes</t>
+    <t>Dropped by Golem. Material exchanged to obtain Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Golem. Material exchanged to obtain Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Panther. Material exchanged to obtain Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Panther. Material exchanged to obtain Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Panther. Used to restore health</t>
+  </si>
+  <si>
+    <t>Dropped by Treant. Material exchanged to obtain Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Dropped by Treant. Material exchanged to obtain Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>Common Loot Box</t>
+  </si>
+  <si>
+    <t>Premium Loot Box</t>
+  </si>
+  <si>
+    <t>Loot Box</t>
+  </si>
+  <si>
+    <t>Exchanged for using common materials. Can drop exclusive armor, weapons, and pets</t>
+  </si>
+  <si>
+    <t>Exchanged for using premium materials. Can drop exclusive armor, weapons, and pets</t>
   </si>
 </sst>
 </file>
@@ -512,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,12 +649,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -653,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -665,12 +683,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -682,12 +700,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -704,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -716,12 +734,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -738,7 +756,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -748,6 +766,40 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C3AEC9-B3FB-4E9D-88B2-D094B8964E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4346A6EA-332F-4A98-A935-ACA2D5FAD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>Exchanged for using premium materials. Can drop exclusive armor, weapons, and pets</t>
+  </si>
+  <si>
+    <t>Stone Sword</t>
+  </si>
+  <si>
+    <t>Hide Armor</t>
+  </si>
+  <si>
+    <t>Hide Robe</t>
+  </si>
+  <si>
+    <t>Stone Staff</t>
+  </si>
+  <si>
+    <t>Bark Armor</t>
+  </si>
+  <si>
+    <t>Bark Robe</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>Bark Axe</t>
+  </si>
+  <si>
+    <t>Bark Wand</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>Panther</t>
+  </si>
+  <si>
+    <t>Golemite</t>
+  </si>
+  <si>
+    <t>A rare Golemite that defends you in battle. A rare drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>A rare baby Panther that attacks your opponents in battle. A rare drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>A wand carved out of bark. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>An axe carved out of bark. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>A robe layered thinnly with bark. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Plates of bark strung tightly together. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Hide loosely stitched into a robe-like shape. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Hide loosely stitched into an armor-like shape. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>A staff molded from stone. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>A sword molded from stone. An uncommon drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>Tweant</t>
+  </si>
+  <si>
+    <t>A rare sapling Treant that increases your stats in battle. A rare drop from Common Loot Boxes</t>
+  </si>
+  <si>
+    <t>PowerUp</t>
   </si>
 </sst>
 </file>
@@ -530,24 +611,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -564,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -615,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -632,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -649,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -666,7 +747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -683,7 +764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -700,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -717,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -734,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -751,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -768,7 +849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -785,7 +866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -800,6 +881,193 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4346A6EA-332F-4A98-A935-ACA2D5FAD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4346A6EA-332F-4A98-A935-ACA2D5FAD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83BFAA1F-C9E7-4843-ACFF-1B492FB91883}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -253,7 +253,13 @@
     <t>A rare sapling Treant that increases your stats in battle. A rare drop from Common Loot Boxes</t>
   </si>
   <si>
-    <t>PowerUp</t>
+    <t>Pet:Attack</t>
+  </si>
+  <si>
+    <t>Pet:Defense</t>
+  </si>
+  <si>
+    <t>Pet:PowerUp</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1050,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1067,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -620,7 +620,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -804,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>

--- a/items.xlsx
+++ b/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4346A6EA-332F-4A98-A935-ACA2D5FAD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83BFAA1F-C9E7-4843-ACFF-1B492FB91883}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16041D96-978F-4283-9B19-9E479815439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Dropped by Treant. Material exchanged to obtain Common Loot Boxes</t>
   </si>
   <si>
-    <t>Dropped by Treant. Material exchanged to obtain Premium Loot Boxes</t>
-  </si>
-  <si>
     <t>Common Loot Box</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>Pet:PowerUp</t>
+  </si>
+  <si>
+    <t>Dropped by Treant. Material exchanged to obtain Premium Loot Boxes. Can also be eaten to restore health.</t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,12 +838,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -869,15 +869,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -886,18 +886,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -959,13 +959,13 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1027,44 +1027,44 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16041D96-978F-4283-9B19-9E479815439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77434DD8-63C7-410E-AFF0-8EA9D8A81FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Curreny used in the market and for other applications</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>0-7</t>
   </si>
   <si>
-    <t>Panther</t>
-  </si>
-  <si>
     <t>Golemite</t>
   </si>
   <si>
@@ -260,16 +254,109 @@
   </si>
   <si>
     <t>Dropped by Treant. Material exchanged to obtain Premium Loot Boxes. Can also be eaten to restore health.</t>
+  </si>
+  <si>
+    <t>Currency used in the market and for other applications</t>
+  </si>
+  <si>
+    <t>Tooth Spear</t>
+  </si>
+  <si>
+    <t>Tooth Scepter</t>
+  </si>
+  <si>
+    <t>Gem Robe</t>
+  </si>
+  <si>
+    <t>Panther Cub</t>
+  </si>
+  <si>
+    <t>Golden Armor</t>
+  </si>
+  <si>
+    <t>Gem Armor</t>
+  </si>
+  <si>
+    <t>Golden Robe</t>
+  </si>
+  <si>
+    <t>Golden Daggers</t>
+  </si>
+  <si>
+    <t>Golden Staff</t>
+  </si>
+  <si>
+    <t>A spear crafted using the Panther's tooth. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A scepter crafted using the Panther's tooth. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A robe crafted using the Golem's Gem. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>An armor crafted using the Golem's Gem. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>An armor crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A robe crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A staff crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A daggers crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>Quadruple Fanged Panther</t>
+  </si>
+  <si>
+    <t>Gem Golem</t>
+  </si>
+  <si>
+    <t>Golden Treant</t>
+  </si>
+  <si>
+    <t>A rare Quadruple Fanged Panther that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A rare Gem Golem that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>A rare Golden Treant that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>3-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -651,432 +738,620 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>73</v>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77434DD8-63C7-410E-AFF0-8EA9D8A81FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E60EA-D9D4-471E-A12E-F24B0D0D61AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -310,18 +310,12 @@
     <t>A daggers crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
   </si>
   <si>
-    <t>Quadruple Fanged Panther</t>
-  </si>
-  <si>
     <t>Gem Golem</t>
   </si>
   <si>
     <t>Golden Treant</t>
   </si>
   <si>
-    <t>A rare Quadruple Fanged Panther that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
-  </si>
-  <si>
     <t>A rare Gem Golem that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
   </si>
   <si>
     <t>3-7</t>
+  </si>
+  <si>
+    <t>Silver Fanged Panther</t>
+  </si>
+  <si>
+    <t>A rare Silver Fanged Panther that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1171,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>51</v>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E60EA-D9D4-471E-A12E-F24B0D0D61AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -208,42 +208,9 @@
     <t>Golemite</t>
   </si>
   <si>
-    <t>A rare Golemite that defends you in battle. A rare drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>A rare baby Panther that attacks your opponents in battle. A rare drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>A wand carved out of bark. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>An axe carved out of bark. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>A robe layered thinnly with bark. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>Plates of bark strung tightly together. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>Hide loosely stitched into a robe-like shape. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>Hide loosely stitched into an armor-like shape. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>A staff molded from stone. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
-    <t>A sword molded from stone. An uncommon drop from Common Loot Boxes</t>
-  </si>
-  <si>
     <t>Tweant</t>
   </si>
   <si>
-    <t>A rare sapling Treant that increases your stats in battle. A rare drop from Common Loot Boxes</t>
-  </si>
-  <si>
     <t>Pet:Attack</t>
   </si>
   <si>
@@ -286,42 +253,12 @@
     <t>Golden Staff</t>
   </si>
   <si>
-    <t>A spear crafted using the Panther's tooth. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>A scepter crafted using the Panther's tooth. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>A robe crafted using the Golem's Gem. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>An armor crafted using the Golem's Gem. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>An armor crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>A robe crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>A staff crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>A daggers crafted using the Treant's Golden Apple. An uncommon drop from Premium Loot Boxes</t>
-  </si>
-  <si>
     <t>Gem Golem</t>
   </si>
   <si>
     <t>Golden Treant</t>
   </si>
   <si>
-    <t>A rare Gem Golem that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
-  </si>
-  <si>
-    <t>A rare Golden Treant that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
-  </si>
-  <si>
     <t>4-8</t>
   </si>
   <si>
@@ -340,7 +277,70 @@
     <t>Silver Fanged Panther</t>
   </si>
   <si>
-    <t>A rare Silver Fanged Panther that attacks your opponent in battle. A rare drop from Premium Loot Boxes</t>
+    <t>A sword molded from stone</t>
+  </si>
+  <si>
+    <t>A staff molded from stone</t>
+  </si>
+  <si>
+    <t>Hide loosely stitched into an armor-like shape</t>
+  </si>
+  <si>
+    <t>Hide loosely stitched into a robe-like shape</t>
+  </si>
+  <si>
+    <t>Plates of bark strung tightly together</t>
+  </si>
+  <si>
+    <t>A robe layered thinnly with bark</t>
+  </si>
+  <si>
+    <t>An axe carved out of bark</t>
+  </si>
+  <si>
+    <t>A wand carved out of bark</t>
+  </si>
+  <si>
+    <t>A rare baby Panther that attacks your opponents in battle</t>
+  </si>
+  <si>
+    <t>A rare Golemite that defends you in battle</t>
+  </si>
+  <si>
+    <t>A rare sapling Treant that increases your stats in battle</t>
+  </si>
+  <si>
+    <t>A spear crafted using the Panther's tooth</t>
+  </si>
+  <si>
+    <t>A scepter crafted using the Panther's tooth</t>
+  </si>
+  <si>
+    <t>An armor crafted using the Golem's Gem</t>
+  </si>
+  <si>
+    <t>A robe crafted using the Golem's Gem</t>
+  </si>
+  <si>
+    <t>An armor crafted using the Treant's Golden Apple</t>
+  </si>
+  <si>
+    <t>A robe crafted using the Treant's Golden Apple</t>
+  </si>
+  <si>
+    <t>A daggers crafted using the Treant's Golden Apple</t>
+  </si>
+  <si>
+    <t>A staff crafted using the Treant's Golden Apple</t>
+  </si>
+  <si>
+    <t>A rare Silver Fanged Panther that attacks your opponent in battle</t>
+  </si>
+  <si>
+    <t>A rare Gem Golem that attacks your opponent in battle</t>
+  </si>
+  <si>
+    <t>A rare Golden Treant that attacks your opponent in battle</t>
   </si>
 </sst>
 </file>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -930,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -976,12 +976,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
@@ -993,12 +993,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
@@ -1010,12 +1010,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -1027,12 +1027,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>51</v>
@@ -1044,12 +1044,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>52</v>
@@ -1061,12 +1061,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
@@ -1078,12 +1078,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>55</v>
@@ -1095,12 +1095,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>55</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>52</v>
@@ -1126,15 +1126,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>52</v>
@@ -1143,15 +1143,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -1160,18 +1160,18 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1180,15 +1180,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1197,15 +1197,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1214,15 +1214,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1231,15 +1231,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1248,15 +1248,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1265,15 +1265,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1282,15 +1282,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1299,46 +1299,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>51</v>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{828A23A5-F263-4066-9277-E7CDB0A50DAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Golden Apple</t>
   </si>
   <si>
-    <t>Consumable</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Dropped by Panther. Material exchanged to obtain Premium Loot Boxes</t>
   </si>
   <si>
-    <t>Dropped by Panther. Used to restore health</t>
-  </si>
-  <si>
     <t>Dropped by Treant. Material exchanged to obtain Common Loot Boxes</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>2-10</t>
   </si>
   <si>
-    <t>3-7</t>
-  </si>
-  <si>
     <t>Silver Fanged Panther</t>
   </si>
   <si>
@@ -337,10 +328,82 @@
     <t>A rare Silver Fanged Panther that attacks your opponent in battle</t>
   </si>
   <si>
-    <t>A rare Gem Golem that attacks your opponent in battle</t>
-  </si>
-  <si>
     <t>A rare Golden Treant that attacks your opponent in battle</t>
+  </si>
+  <si>
+    <t>Consumable:HP</t>
+  </si>
+  <si>
+    <t>Dropped by Panther. Can be consumed to restore health</t>
+  </si>
+  <si>
+    <t>Exchanged for using gold. Can drop exlusive armor, weapons and pets</t>
+  </si>
+  <si>
+    <t>Mythical Long Sword</t>
+  </si>
+  <si>
+    <t>Mythical Staff</t>
+  </si>
+  <si>
+    <t>Mythical Robe</t>
+  </si>
+  <si>
+    <t>Mythical Armor</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Mythical Loot Box</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Sphinx</t>
+  </si>
+  <si>
+    <t>A large garnet inserted at the top of an elderwood staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A robe forged completely out of extremely rare garnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A armor forged completely out of extremely rare garnet </t>
+  </si>
+  <si>
+    <t>A rare Gem Golem that defends your opponent in battle</t>
+  </si>
+  <si>
+    <t>The mythical Sphinx that defends your opponent in battle</t>
+  </si>
+  <si>
+    <t>A long sword forged using rare garnet</t>
+  </si>
+  <si>
+    <t>A mythical Griffin that claws at your opponents in battle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mythical Unicorn that powers you up during battle </t>
+  </si>
+  <si>
+    <t>7-15</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>7-10</t>
   </si>
 </sst>
 </file>
@@ -704,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -828,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -845,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -857,21 +920,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -879,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -896,7 +959,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -913,7 +976,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -930,24 +993,24 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -956,15 +1019,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -973,18 +1036,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -995,13 +1058,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1012,13 +1075,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1029,13 +1092,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1046,13 +1109,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1063,13 +1126,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1080,13 +1143,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1097,13 +1160,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1114,64 +1177,64 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1182,13 +1245,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1199,13 +1262,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1216,13 +1279,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1233,13 +1296,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1250,13 +1313,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1267,13 +1330,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1284,13 +1347,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1301,53 +1364,189 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>60</v>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{828A23A5-F263-4066-9277-E7CDB0A50DAA}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E370B48-F854-4645-B5B7-6DC6D459743B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
   <si>
     <t>Description</t>
   </si>
@@ -373,12 +373,6 @@
     <t xml:space="preserve">A armor forged completely out of extremely rare garnet </t>
   </si>
   <si>
-    <t>A rare Gem Golem that defends your opponent in battle</t>
-  </si>
-  <si>
-    <t>The mythical Sphinx that defends your opponent in battle</t>
-  </si>
-  <si>
     <t>A long sword forged using rare garnet</t>
   </si>
   <si>
@@ -388,22 +382,121 @@
     <t xml:space="preserve">The mythical Unicorn that powers you up during battle </t>
   </si>
   <si>
-    <t>7-15</t>
-  </si>
-  <si>
-    <t>7-13</t>
-  </si>
-  <si>
     <t>0-1</t>
   </si>
   <si>
-    <t>4-7</t>
+    <t>Platinum Coin</t>
+  </si>
+  <si>
+    <t>Dragon Katana</t>
+  </si>
+  <si>
+    <t>Dragon Crown</t>
+  </si>
+  <si>
+    <t>Baby Dragon</t>
+  </si>
+  <si>
+    <t>A katana that absorbed the dragon's fiery essence</t>
+  </si>
+  <si>
+    <t>A crown made from the bones and heart of the dragon</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>5-12</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>7-16</t>
+  </si>
+  <si>
+    <t>7-14</t>
+  </si>
+  <si>
+    <t>Lich Spellbook</t>
+  </si>
+  <si>
+    <t>Lich Cloak</t>
+  </si>
+  <si>
+    <t>Lich Apprentice</t>
+  </si>
+  <si>
+    <t>The book that hold's all of the Lich's dark spells</t>
+  </si>
+  <si>
+    <t>A cloak imbued with the Lich's dark energy</t>
+  </si>
+  <si>
+    <t>A hatchling dragon that breathes fire at your opponents in battle</t>
+  </si>
+  <si>
+    <t>An apprentice Lich that curses your opponents in battle</t>
+  </si>
+  <si>
+    <t>Pet:Magic Attack</t>
+  </si>
+  <si>
+    <t>Tentacle Sai</t>
+  </si>
+  <si>
+    <t>Sucker Armor</t>
+  </si>
+  <si>
+    <t>7-12</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>A sai with tentacles sprouting out of it</t>
+  </si>
+  <si>
+    <t>Giant Squid</t>
+  </si>
+  <si>
+    <t>Armor lined with suckers, latching onto its opponents</t>
+  </si>
+  <si>
+    <t>A not-so-giant squid that guards you from your opponents in battle</t>
+  </si>
+  <si>
+    <t>The mythical Sphinx that defends you against your opponent in battle</t>
+  </si>
+  <si>
+    <t>A rare Gem Golem that defends you against your opponent in battle</t>
+  </si>
+  <si>
+    <t>Giant Troll Club</t>
+  </si>
+  <si>
+    <t>Giant Troll T-Shirt</t>
+  </si>
+  <si>
+    <t>Mini Troll</t>
+  </si>
+  <si>
+    <t>A gigantic club used by the Giant Troll</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>A gigantic T-shirt worn by the Giant Troll</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>A mini troll that powers you up during battle</t>
   </si>
   <si>
     <t>2-3</t>
-  </si>
-  <si>
-    <t>7-10</t>
   </si>
 </sst>
 </file>
@@ -767,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1276,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1200,7 +1293,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1217,7 +1310,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1370,7 +1463,7 @@
         <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1384,10 +1477,10 @@
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1435,10 +1528,10 @@
         <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1455,7 +1548,7 @@
         <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1472,7 +1565,7 @@
         <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1489,7 +1582,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1503,10 +1596,10 @@
         <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1520,10 +1613,10 @@
         <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1537,15 +1630,236 @@
         <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="C48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E370B48-F854-4645-B5B7-6DC6D459743B}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C9C3FBD-5FB0-417C-B894-EF3EF6674AAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AFF9EEE-D23B-4E8B-9C8E-5BF4B0F735F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
   <si>
     <t>Description</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Dropped by Panther. Can be consumed to restore health</t>
   </si>
   <si>
-    <t>Exchanged for using gold. Can drop exlusive armor, weapons and pets</t>
-  </si>
-  <si>
     <t>Mythical Long Sword</t>
   </si>
   <si>
@@ -497,6 +494,15 @@
   </si>
   <si>
     <t>2-3</t>
+  </si>
+  <si>
+    <t>Challenger Loot Box</t>
+  </si>
+  <si>
+    <t>Exchanged for using platinum coins. Can drop exclusive armor, weapons and pets</t>
+  </si>
+  <si>
+    <t>Exchanged for using gold. Can drop exclusive armor, weapons and pets</t>
   </si>
 </sst>
 </file>
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1316,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1477,7 +1483,7 @@
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>49</v>
@@ -1508,10 +1514,10 @@
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>19</v>
@@ -1525,13 +1531,13 @@
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1542,13 +1548,13 @@
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1559,13 +1565,13 @@
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1576,13 +1582,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1593,10 +1599,10 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>31</v>
@@ -1610,10 +1616,10 @@
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>31</v>
@@ -1627,13 +1633,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>60</v>
@@ -1661,13 +1667,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1678,13 +1684,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1695,13 +1701,13 @@
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1712,13 +1718,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1729,13 +1735,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1746,30 +1752,30 @@
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -1780,13 +1786,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -1797,13 +1803,13 @@
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -1814,13 +1820,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1831,13 +1837,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1848,10 +1854,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>49</v>
@@ -1861,6 +1867,23 @@
       </c>
       <c r="E58" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/marcus_lau_baruchmail_cuny_edu/Documents/Documents/GitHub/RPG/RPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{A8034901-0597-46DC-8B9E-033E474E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C9C3FBD-5FB0-417C-B894-EF3EF6674AAA}"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC809A-A91F-4ACB-8EE8-79CADBAB716F}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
